--- a/_data/projects.xlsx
+++ b/_data/projects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ulyngs/Library/Mobile Documents/com~apple~CloudDocs/Website/lyngs-hugo/_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ulyngs/Library/Mobile Documents/com~apple~CloudDocs/Work/Website/lyngs-hugo/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E63984E-70CD-4A46-89D4-C39F200DE742}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82DCE82-F922-DB4E-8B26-9501769FAA88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{658FACE9-883F-4F49-B936-65547CAA7E51}"/>
   </bookViews>
@@ -53,9 +53,6 @@
     <t>redd-workshop</t>
   </si>
   <si>
-    <t>Ulysses in Cyberspace: Attention, Self-Control and Digital Design</t>
-  </si>
-  <si>
     <t>Laptops and smartphones let us do anything, anywhere. Yet, when everything is always available, many users get distracted by their devices and struggle with self-control. On app stores, an entire niche has emerged for 'anti-distraction tools' which claim to help people self-regulate by blocking distractions, tracking device use, or gamifying intended use. Which design features actually help users self-regulate their use of digital devices, and can theories of cognitive control from the behavioural neurosciences help us?
 This is the focus of my PhD research, where my collaborators include [Sir Nigel Shadbolt](https://www.jesus.ox.ac.uk/people/professor-sir-nigel-shadbolt-freng-frs) (my primary supervisor), [Reuben Binns](https://www.reubenbinns.com), [Max van Kleek](https://hip.cat/emax/), [Jun Zhao](https://www.cs.ox.ac.uk/people/jun.zhao/), [Michael Inzlicht](http://michaelinzlicht.com), [Kai Lukoff](http://www.kailukoff.com), [Petr Slovák](https://uclic.ucl.ac.uk/people/petr-slovak), [Helena Webb](https://www.cs.ox.ac.uk/people/helena.webb/) [Marina Jirotka](https://www.cs.ox.ac.uk/people/marina.jirotka/), and [Ryan McKay](https://pure.royalholloway.ac.uk/portal/en/persons/ryan-mckay_cda72457-6d2a-4ed6-91d7-cfd5904b91e4.html).</t>
   </si>
@@ -70,9 +67,6 @@
   </si>
   <si>
     <t>religion-self-control</t>
-  </si>
-  <si>
-    <t>Hearing in Colour: Expectation and Perception</t>
   </si>
   <si>
     <t>[Research in the US](https://www.ncbi.nlm.nih.gov/pubmed/17087569) has found that people see faces as darker if they categorise them as African American than if they categorise them as White American, even if the objective skin tone is exactly identical. 
@@ -88,12 +82,6 @@
     <t>teaser_image</t>
   </si>
   <si>
-    <t>/images/redd-workshop/redd-logo-rect.png</t>
-  </si>
-  <si>
-    <t>/post/2018-10-28-ulysses-in-cyberspace/preview.png</t>
-  </si>
-  <si>
     <t>/projects/rel_self_control.jpg</t>
   </si>
   <si>
@@ -108,6 +96,18 @@
   </si>
   <si>
     <t>‘Self-control’ is the capacity to override our own inner states or responses. For example, we exercise self-control when we suppress a desire to eat junk food, or resist an urge to check Facebook when we should be writing a paper. As ’nudge’ theorists and advertisers have long known, however, our behavior and capacity for self-control is greatly influenced by our environment. One ancient cultural tool to guide people’s behavior and self-control is religion. Moral norms of virtues and vices, rituals where people affirm their beliefs and reflect on their behavior, social structures such as gender segregation that reduces exposure to 'temptations' - all of these can be seen as culturally evolved tools for scaffolding self-regulation. My MA dissertation in the Study of Religion and Psychology from Aarhus University explored current evidence on, and models of, the relationship between religion and self-control, and was supervised by [Uffe Schjødt](http://pure.au.dk/portal/en/us@teo.au.dk).</t>
+  </si>
+  <si>
+    <t>/images/redd-workshop/redd-logo-rect-small.jpg</t>
+  </si>
+  <si>
+    <t>/post/2018-10-28-ulysses-in-cyberspace/preview.jpg</t>
+  </si>
+  <si>
+    <t>Ulysses in Cyberspace: Examining the Effectiveness of Digital Self-Control Strategies</t>
+  </si>
+  <si>
+    <t>Hearing in Colour: How Expectations Influence Visual Perception</t>
   </si>
 </sst>
 </file>
@@ -486,8 +486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D849796-8D2F-2144-8637-FA01837A8DE5}">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -517,7 +517,7 @@
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -536,14 +536,14 @@
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -559,17 +559,17 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -582,20 +582,20 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -608,20 +608,20 @@
     </row>
     <row r="5" spans="1:15" ht="289" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
